--- a/VersionRecords/Version 3.4.2.2/版本Bug和特性计划及评审表v3.4.2.2_发现组.xlsx
+++ b/VersionRecords/Version 3.4.2.2/版本Bug和特性计划及评审表v3.4.2.2_发现组.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.4.2.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.4.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.4.2.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
     <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -563,6 +568,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -899,7 +907,7 @@
   <dimension ref="A1:T186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
